--- a/document/excel_upload_자료/TBL_EXP_FIN_ANAL_STOCKHOLDER.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_FIN_ANAL_STOCKHOLDER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\두견\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82CD717-6442-44C1-82B8-A427C44CAA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721A3CBB-FA41-4956-853B-38799DCAE959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Table명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,45 +77,130 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBL_EXP_FIN_ANAL_STOCKHOLDER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주요 주주 연번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주요주주명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지분율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경영실권자와의 관계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사와의 관계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차명주주 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VALUE_OF_SHARES_HELD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보유지분가치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25FC</t>
+  </si>
+  <si>
+    <t>이성욱</t>
+  </si>
+  <si>
+    <t>보통주</t>
+  </si>
+  <si>
+    <t>본인</t>
+  </si>
+  <si>
+    <t>대표이사</t>
+  </si>
+  <si>
+    <t>2024.08.31</t>
+  </si>
+  <si>
+    <t>신승환</t>
+  </si>
+  <si>
+    <t>임원</t>
+  </si>
+  <si>
+    <t>안용규</t>
+  </si>
+  <si>
+    <t>배상수</t>
+  </si>
+  <si>
+    <t>SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STOCKHOLDER_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STOCK_CNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHARE_RATIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STOCK_KIND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OWNER_RELATIONSHIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPANY_RELATIONSHIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BORROWED_NM_YN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BASE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>BUYER_ID</t>
-  </si>
-  <si>
-    <t>SEQ</t>
-  </si>
-  <si>
-    <t>1/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BASE_DATE</t>
-  </si>
-  <si>
-    <t>TBL_EXP_FIN_ANAL_STOCKHOLDER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STOCKHOLDER_NM</t>
-  </si>
-  <si>
-    <t>STOCK_CNT</t>
-  </si>
-  <si>
-    <t>SHARE_RATIO</t>
-  </si>
-  <si>
-    <t>STOCK_KIND</t>
-  </si>
-  <si>
-    <t>OWNER_RELATIONSHIP</t>
-  </si>
-  <si>
-    <t>COMPANY_RELATIONSHIP</t>
-  </si>
-  <si>
-    <t>BORROWED_NM_YN</t>
-  </si>
-  <si>
-    <t>VALUE_OF_SHARES_HELD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -669,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153AC9D0-4242-43A7-80D5-A7E4643E8D4D}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -687,7 +772,7 @@
     <col min="8" max="8" width="28.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="34.5" customHeight="1">
@@ -718,10 +803,10 @@
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="24.75" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>7</v>
@@ -734,73 +819,189 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="9" t="s">
+      <c r="A4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="A5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>21</v>
+      <c r="K5" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>29400</v>
+      </c>
+      <c r="E6">
+        <v>45.5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>15000</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>3600</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>12000</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
